--- a/MrScrappy/data/scrapedData.xlsx
+++ b/MrScrappy/data/scrapedData.xlsx
@@ -397,113 +397,749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>JobTitle</v>
+        <v>jobTitle</v>
       </c>
       <c r="B1" t="str">
-        <v>Company</v>
+        <v>companyName</v>
       </c>
       <c r="C1" t="str">
-        <v>Location</v>
+        <v>timePosted</v>
+      </c>
+      <c r="D1" t="str">
+        <v>jobSearchLocation</v>
+      </c>
+      <c r="E1" t="str">
+        <v>applicantsStatus</v>
+      </c>
+      <c r="F1" t="str">
+        <v>directLinkedInLink</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Game Development</v>
+        <v>Game Tester Opportunity!</v>
       </c>
       <c r="B2" t="str">
-        <v>owoowoowowoowoowowoowoowoooo</v>
+        <v>TransPerfect</v>
       </c>
       <c r="C2" t="str">
-        <v>New York</v>
+        <v>1 month ago</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://www.linkedin.com/company/transperfect?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Data Analysticiter</v>
+        <v>Game Tester</v>
       </c>
       <c r="B3" t="str">
-        <v>Data Inc</v>
+        <v>GoTeam</v>
       </c>
       <c r="C3" t="str">
-        <v>San Francisco</v>
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://www.linkedin.com/company/goteamph?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Game Development</v>
+        <v>Gaming Recruiter</v>
       </c>
       <c r="B4" t="str">
-        <v>owoowoowowoowoowowoowoowoooo</v>
+        <v>Seedify</v>
       </c>
       <c r="C4" t="str">
-        <v>New York</v>
+        <v>2 months ago</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.linkedin.com/company/seedify?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Data Analysticiter</v>
+        <v>Aspire Future Leaders Program - People</v>
       </c>
       <c r="B5" t="str">
-        <v>Data Inc</v>
+        <v>Coca-Cola Beverages Philippines</v>
       </c>
       <c r="C5" t="str">
-        <v>San Francisco</v>
+        <v>3 weeks ago</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://www.linkedin.com/company/coca_cola_beverages_philippines?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Game Development</v>
+        <v>Game Developer</v>
       </c>
       <c r="B6" t="str">
-        <v>owoowoowowoowoowowoowoowoooo</v>
+        <v>Animoca Brands</v>
       </c>
       <c r="C6" t="str">
-        <v>New York</v>
+        <v>1 month ago</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.linkedin.com/company/animoca-brands?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Data Analysticiter</v>
+        <v>Sales Support Executive</v>
       </c>
       <c r="B7" t="str">
-        <v>Data Inc</v>
+        <v>Cebu Pacific Air</v>
       </c>
       <c r="C7" t="str">
-        <v>San Francisco</v>
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Pasay, National Capital Region, Philippines</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.linkedin.com/company/cebupacificair?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Game Development</v>
+        <v>Unity Game Developer</v>
       </c>
       <c r="B8" t="str">
-        <v>owoowoowowoowoowowoowoowoooo</v>
+        <v>BreederDAO</v>
       </c>
       <c r="C8" t="str">
-        <v>New York</v>
+        <v>1 month ago</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Data Analysticiter</v>
+        <v>Jr./Sr. Web Programmer</v>
       </c>
       <c r="B9" t="str">
-        <v>Data Inc</v>
+        <v>Kooapps</v>
       </c>
       <c r="C9" t="str">
-        <v>San Francisco</v>
+        <v>1 year ago</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Frontend Developer</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Animoca Brands</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.linkedin.com/company/animoca-brands?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Aspire Future Leaders Program - Finance</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Coca-Cola Beverages Philippines</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3 weeks ago</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.linkedin.com/company/coca_cola_beverages_philippines?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>VR Video game tester (night shift)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Secret 6</v>
+      </c>
+      <c r="C12" t="str">
+        <v>6 days ago</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Pasig, National Capital Region, Philippines</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.linkedin.com/company/secret6?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Unreal Engine Developer</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BreederDAO</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Digital Marketing Staff</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Unity Level Integrator</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Limit Break</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Manila, National Capital Region, Philippines</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.linkedin.com/company/limit-break?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Product Manager - Game Development</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Dempsey Resource Management Inc.</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Metro Manila</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.linkedin.com/company/dempsey-resource-management-inc-?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3D Level Designer</v>
+      </c>
+      <c r="B17" t="str">
+        <v>BreederDAO</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2 months ago</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>3D Junior Artist, Digital Studios</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Pasay, National Capital Region, Philippines</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.linkedin.com/company/amazon?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Jr./Sr. Data Analyst</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1 year ago</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Virtual Assistant (OSD0002)</v>
+      </c>
+      <c r="B20" t="str">
+        <v>hammerjack</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Lead Quality Assurance (Night Shift)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kwanii</v>
+      </c>
+      <c r="C21" t="str">
+        <v>4 weeks ago</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.linkedin.com/company/kwanii?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Senior Level Game Software Engineer (Unity)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Dempsey Resource Management Inc.</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Metro Manila</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://www.linkedin.com/company/dempsey-resource-management-inc-?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>C++ Developer</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BreederDAO</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>3D Environment Artist</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Pixel Mafia Ltd.</v>
+      </c>
+      <c r="C24" t="str">
+        <v>3 weeks ago</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://www.linkedin.com/company/pixelmafia?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>3D Artist</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C25" t="str">
+        <v>6 months ago</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Data Scientist</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Helika</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://www.linkedin.com/company/helika?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Account Executive (Passenger Sales)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Cebu Pacific Air</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Pasay, National Capital Region, Philippines</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://ph.linkedin.com/company/cebupacificair?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>3D Closet Modeller</v>
+      </c>
+      <c r="B28" t="str">
+        <v>RemoteVA</v>
+      </c>
+      <c r="C28" t="str">
+        <v>4 weeks ago</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://www.linkedin.com/company/remoteva?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Filipino Language Game Tester (Editor/Proofreader)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>PTW</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://www.linkedin.com/company/ptwintl?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Jr./Sr. Mobile Game Programmer</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Multimedia Artist</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1 year ago</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Senior Project Manager</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C32" t="str">
+        <v>3 months ago</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Virtual Assistant (SLI0001)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>hammerjack</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://au.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Virtual Assistant (CTC0001)</v>
+      </c>
+      <c r="B34" t="str">
+        <v>hammerjack</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://au.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Esports Production &amp; Logistics Manager</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Skillsearch</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1 year ago</v>
+      </c>
+      <c r="D35" t="str">
+        <v>National Capital Region, Philippines</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://uk.linkedin.com/company/skillsearch?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>QA Engineer</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C36" t="str">
+        <v>10 months ago</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>3D Artist - Fixed Term</v>
+      </c>
+      <c r="B37" t="str">
+        <v>MicroSourcing</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Pasig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://ph.linkedin.com/company/microsourcing?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Multimedia Intern</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Kooapps</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1 year ago</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Makati, National Capital Region, Philippines</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Unity Level Integrator</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Skillsearch</v>
+      </c>
+      <c r="C39" t="str">
+        <v>6 months ago</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Metro Manila</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://uk.linkedin.com/company/skillsearch?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F39"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/MrScrappy/data/scrapedData.xlsx
+++ b/MrScrappy/data/scrapedData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -487,7 +487,7 @@
         <v>Coca-Cola Beverages Philippines</v>
       </c>
       <c r="C5" t="str">
-        <v>3 weeks ago</v>
+        <v>4 weeks ago</v>
       </c>
       <c r="D5" t="str">
         <v>Taguig, National Capital Region, Philippines</v>
@@ -578,42 +578,39 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Frontend Developer</v>
+        <v>Monetization Specialist</v>
       </c>
       <c r="B10" t="str">
-        <v>Animoca Brands</v>
+        <v>Seedify</v>
       </c>
       <c r="C10" t="str">
-        <v>1 month ago</v>
+        <v>1 day ago</v>
       </c>
       <c r="D10" t="str">
         <v>Philippines</v>
       </c>
       <c r="E10" t="str">
-        <v>Over 200 applicants</v>
+        <v>Be among the first 25 applicants</v>
       </c>
       <c r="F10" t="str">
-        <v>https://www.linkedin.com/company/animoca-brands?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/seedify?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Aspire Future Leaders Program - Finance</v>
+        <v>Game Developer</v>
       </c>
       <c r="B11" t="str">
-        <v>Coca-Cola Beverages Philippines</v>
+        <v>CallTek</v>
       </c>
       <c r="C11" t="str">
-        <v>3 weeks ago</v>
+        <v>2 months ago</v>
       </c>
       <c r="D11" t="str">
-        <v>Taguig, National Capital Region, Philippines</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Over 200 applicants</v>
+        <v>Philippines</v>
       </c>
       <c r="F11" t="str">
-        <v>https://www.linkedin.com/company/coca_cola_beverages_philippines?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/calltek-inc.?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="12">
@@ -624,7 +621,7 @@
         <v>Secret 6</v>
       </c>
       <c r="C12" t="str">
-        <v>6 days ago</v>
+        <v>1 week ago</v>
       </c>
       <c r="D12" t="str">
         <v>Pasig, National Capital Region, Philippines</v>
@@ -635,39 +632,42 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Unreal Engine Developer</v>
+        <v>Aspire Future Leaders Program - Finance</v>
       </c>
       <c r="B13" t="str">
-        <v>BreederDAO</v>
+        <v>Coca-Cola Beverages Philippines</v>
       </c>
       <c r="C13" t="str">
-        <v>1 month ago</v>
+        <v>4 weeks ago</v>
       </c>
       <c r="D13" t="str">
-        <v>Philippines</v>
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Over 200 applicants</v>
       </c>
       <c r="F13" t="str">
-        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/coca_cola_beverages_philippines?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Digital Marketing Staff</v>
+        <v>Frontend Developer</v>
       </c>
       <c r="B14" t="str">
-        <v>Kooapps</v>
+        <v>Animoca Brands</v>
       </c>
       <c r="C14" t="str">
-        <v>1 week ago</v>
+        <v>1 month ago</v>
       </c>
       <c r="D14" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Philippines</v>
       </c>
       <c r="E14" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Over 200 applicants</v>
       </c>
       <c r="F14" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/animoca-brands?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="15">
@@ -678,7 +678,7 @@
         <v>Limit Break</v>
       </c>
       <c r="C15" t="str">
-        <v>2 weeks ago</v>
+        <v>22 hours ago</v>
       </c>
       <c r="D15" t="str">
         <v>Manila, National Capital Region, Philippines</v>
@@ -692,454 +692,1026 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Product Manager - Game Development</v>
+        <v>Unreal Engine Developer</v>
       </c>
       <c r="B16" t="str">
-        <v>Dempsey Resource Management Inc.</v>
+        <v>BreederDAO</v>
       </c>
       <c r="C16" t="str">
         <v>1 month ago</v>
       </c>
       <c r="D16" t="str">
-        <v>Metro Manila</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Philippines</v>
       </c>
       <c r="F16" t="str">
-        <v>https://www.linkedin.com/company/dempsey-resource-management-inc-?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>3D Level Designer</v>
+        <v>Digital Marketing Staff</v>
       </c>
       <c r="B17" t="str">
-        <v>BreederDAO</v>
+        <v>Kooapps</v>
       </c>
       <c r="C17" t="str">
-        <v>2 months ago</v>
+        <v>1 week ago</v>
       </c>
       <c r="D17" t="str">
         <v>Makati, National Capital Region, Philippines</v>
       </c>
+      <c r="E17" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
       <c r="F17" t="str">
-        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>3D Junior Artist, Digital Studios</v>
+        <v>Product Manager - Game Development</v>
       </c>
       <c r="B18" t="str">
-        <v>Amazon</v>
+        <v>Dempsey Resource Management Inc.</v>
       </c>
       <c r="C18" t="str">
-        <v>1 day ago</v>
+        <v>1 month ago</v>
       </c>
       <c r="D18" t="str">
-        <v>Pasay, National Capital Region, Philippines</v>
+        <v>Metro Manila</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Be among the first 25 applicants</v>
       </c>
       <c r="F18" t="str">
-        <v>https://www.linkedin.com/company/amazon?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/dempsey-resource-management-inc-?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Jr./Sr. Data Analyst</v>
+        <v>3D Level Designer</v>
       </c>
       <c r="B19" t="str">
-        <v>Kooapps</v>
+        <v>BreederDAO</v>
       </c>
       <c r="C19" t="str">
-        <v>1 year ago</v>
+        <v>2 months ago</v>
       </c>
       <c r="D19" t="str">
         <v>Makati, National Capital Region, Philippines</v>
       </c>
-      <c r="E19" t="str">
-        <v>Be among the first 25 applicants</v>
-      </c>
       <c r="F19" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Virtual Assistant (OSD0002)</v>
+        <v>Unity Level Integrator</v>
       </c>
       <c r="B20" t="str">
-        <v>hammerjack</v>
+        <v>Skillsearch</v>
       </c>
       <c r="C20" t="str">
-        <v>1 month ago</v>
+        <v>7 months ago</v>
       </c>
       <c r="D20" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Metro Manila</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Be among the first 25 applicants</v>
       </c>
       <c r="F20" t="str">
-        <v>https://www.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/skillsearch?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Lead Quality Assurance (Night Shift)</v>
+        <v>Senior level game software engineer (unity)</v>
       </c>
       <c r="B21" t="str">
-        <v>Kwanii</v>
+        <v>Dempsey Resource Management Inc.</v>
       </c>
       <c r="C21" t="str">
-        <v>4 weeks ago</v>
+        <v>3 weeks ago</v>
       </c>
       <c r="D21" t="str">
-        <v>Philippines</v>
+        <v>Pasig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Be among the first 25 applicants</v>
       </c>
       <c r="F21" t="str">
-        <v>https://www.linkedin.com/company/kwanii?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/dempseyinc-official?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Senior Level Game Software Engineer (Unity)</v>
+        <v>Jr./Sr. Data Analyst</v>
       </c>
       <c r="B22" t="str">
-        <v>Dempsey Resource Management Inc.</v>
+        <v>Kooapps</v>
       </c>
       <c r="C22" t="str">
-        <v>1 month ago</v>
+        <v>1 year ago</v>
       </c>
       <c r="D22" t="str">
-        <v>Metro Manila</v>
+        <v>Makati, National Capital Region, Philippines</v>
       </c>
       <c r="E22" t="str">
         <v>Be among the first 25 applicants</v>
       </c>
       <c r="F22" t="str">
-        <v>https://www.linkedin.com/company/dempsey-resource-management-inc-?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>C++ Developer</v>
+        <v>Virtual Assistant (OSD0002)</v>
       </c>
       <c r="B23" t="str">
-        <v>BreederDAO</v>
+        <v>hammerjack</v>
       </c>
       <c r="C23" t="str">
         <v>1 month ago</v>
       </c>
       <c r="D23" t="str">
-        <v>Philippines</v>
+        <v>Makati, National Capital Region, Philippines</v>
       </c>
       <c r="F23" t="str">
-        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>3D Environment Artist</v>
+        <v>Lead Quality Assurance (Night Shift)</v>
       </c>
       <c r="B24" t="str">
-        <v>Pixel Mafia Ltd.</v>
+        <v>Kwanii</v>
       </c>
       <c r="C24" t="str">
-        <v>3 weeks ago</v>
+        <v>1 month ago</v>
       </c>
       <c r="D24" t="str">
-        <v>Taguig, National Capital Region, Philippines</v>
+        <v>Philippines</v>
       </c>
       <c r="F24" t="str">
-        <v>https://www.linkedin.com/company/pixelmafia?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/kwanii?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>3D Artist</v>
+        <v>C++ Developer</v>
       </c>
       <c r="B25" t="str">
-        <v>Kooapps</v>
+        <v>BreederDAO</v>
       </c>
       <c r="C25" t="str">
-        <v>6 months ago</v>
+        <v>1 month ago</v>
       </c>
       <c r="D25" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Philippines</v>
       </c>
       <c r="F25" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Data Scientist</v>
+        <v>Senior Level Game Software Engineer (Unity)</v>
       </c>
       <c r="B26" t="str">
-        <v>Helika</v>
+        <v>Dempsey Resource Management Inc.</v>
       </c>
       <c r="C26" t="str">
-        <v>1 week ago</v>
+        <v>1 month ago</v>
       </c>
       <c r="D26" t="str">
-        <v>Philippines</v>
+        <v>Metro Manila</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Be among the first 25 applicants</v>
       </c>
       <c r="F26" t="str">
-        <v>https://www.linkedin.com/company/helika?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/dempsey-resource-management-inc-?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Account Executive (Passenger Sales)</v>
+        <v>3D Environment Artist</v>
       </c>
       <c r="B27" t="str">
-        <v>Cebu Pacific Air</v>
+        <v>Pixel Mafia Ltd.</v>
       </c>
       <c r="C27" t="str">
-        <v>1 day ago</v>
+        <v>3 weeks ago</v>
       </c>
       <c r="D27" t="str">
-        <v>Pasay, National Capital Region, Philippines</v>
+        <v>Taguig, National Capital Region, Philippines</v>
       </c>
       <c r="F27" t="str">
-        <v>https://ph.linkedin.com/company/cebupacificair?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/pixelmafia?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>3D Closet Modeller</v>
+        <v>3D Artist</v>
       </c>
       <c r="B28" t="str">
-        <v>RemoteVA</v>
+        <v>Kooapps</v>
       </c>
       <c r="C28" t="str">
-        <v>4 weeks ago</v>
+        <v>6 months ago</v>
       </c>
       <c r="D28" t="str">
-        <v>Philippines</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Over 200 applicants</v>
+        <v>Makati, National Capital Region, Philippines</v>
       </c>
       <c r="F28" t="str">
-        <v>https://www.linkedin.com/company/remoteva?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Filipino Language Game Tester (Editor/Proofreader)</v>
+        <v>Data Scientist</v>
       </c>
       <c r="B29" t="str">
-        <v>PTW</v>
+        <v>Helika</v>
       </c>
       <c r="C29" t="str">
-        <v>1 month ago</v>
+        <v>1 week ago</v>
       </c>
       <c r="D29" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Philippines</v>
       </c>
       <c r="F29" t="str">
-        <v>https://www.linkedin.com/company/ptwintl?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/helika?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Jr./Sr. Mobile Game Programmer</v>
+        <v>Account Executive (Passenger Sales)</v>
       </c>
       <c r="B30" t="str">
-        <v>Kooapps</v>
+        <v>Cebu Pacific Air</v>
       </c>
       <c r="C30" t="str">
-        <v>1 week ago</v>
+        <v>4 days ago</v>
       </c>
       <c r="D30" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Pasay, National Capital Region, Philippines</v>
       </c>
       <c r="F30" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/cebupacificair?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Multimedia Artist</v>
+        <v>Monetization Specialist</v>
       </c>
       <c r="B31" t="str">
-        <v>Kooapps</v>
+        <v>Seedify</v>
       </c>
       <c r="C31" t="str">
-        <v>1 year ago</v>
+        <v>2 days ago</v>
       </c>
       <c r="D31" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Philippines</v>
       </c>
       <c r="E31" t="str">
         <v>Be among the first 25 applicants</v>
       </c>
       <c r="F31" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/seedify?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Senior Project Manager</v>
+        <v>Unity Level Integrator</v>
       </c>
       <c r="B32" t="str">
-        <v>Kooapps</v>
+        <v>Limit Break</v>
       </c>
       <c r="C32" t="str">
-        <v>3 months ago</v>
+        <v>1 day ago</v>
       </c>
       <c r="D32" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Manila, National Capital Region, Philippines</v>
       </c>
       <c r="E32" t="str">
         <v>Be among the first 25 applicants</v>
       </c>
       <c r="F32" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/limit-break?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Virtual Assistant (SLI0001)</v>
+        <v>3D Artist</v>
       </c>
       <c r="B33" t="str">
-        <v>hammerjack</v>
+        <v>Kooapps</v>
       </c>
       <c r="C33" t="str">
-        <v>1 month ago</v>
+        <v>7 months ago</v>
       </c>
       <c r="D33" t="str">
         <v>Makati, National Capital Region, Philippines</v>
       </c>
-      <c r="E33" t="str">
-        <v>Be among the first 25 applicants</v>
-      </c>
       <c r="F33" t="str">
-        <v>https://au.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Virtual Assistant (CTC0001)</v>
+        <v>C# Developer</v>
       </c>
       <c r="B34" t="str">
-        <v>hammerjack</v>
+        <v>BreederDAO</v>
       </c>
       <c r="C34" t="str">
-        <v>2 weeks ago</v>
+        <v>1 month ago</v>
       </c>
       <c r="D34" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Philippines</v>
       </c>
       <c r="E34" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Over 200 applicants</v>
       </c>
       <c r="F34" t="str">
-        <v>https://au.linkedin.com/company/hammerjack?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/breederdao?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Esports Production &amp; Logistics Manager</v>
+        <v>Sr. Unity Engineer</v>
       </c>
       <c r="B35" t="str">
-        <v>Skillsearch</v>
+        <v>Get Devs</v>
       </c>
       <c r="C35" t="str">
-        <v>1 year ago</v>
+        <v>8 months ago</v>
       </c>
       <c r="D35" t="str">
-        <v>National Capital Region, Philippines</v>
-      </c>
-      <c r="E35" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Makati, National Capital Region, Philippines</v>
       </c>
       <c r="F35" t="str">
-        <v>https://uk.linkedin.com/company/skillsearch?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/getdevs?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>QA Engineer</v>
+        <v>Junior-Intermediate 3D Artist</v>
       </c>
       <c r="B36" t="str">
-        <v>Kooapps</v>
+        <v>Umbra</v>
       </c>
       <c r="C36" t="str">
-        <v>10 months ago</v>
+        <v>2 weeks ago</v>
       </c>
       <c r="D36" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Scarborough, Ontario, Canada</v>
       </c>
       <c r="F36" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/umbra?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>3D Artist - Fixed Term</v>
+        <v>New Grad: Systems &amp; Graphics Engineer</v>
       </c>
       <c r="B37" t="str">
-        <v>MicroSourcing</v>
+        <v>Parallelz</v>
       </c>
       <c r="C37" t="str">
-        <v>2 weeks ago</v>
+        <v>3 weeks ago</v>
       </c>
       <c r="D37" t="str">
-        <v>Pasig, National Capital Region, Philippines</v>
+        <v>Toronto, Ontario, Canada</v>
       </c>
       <c r="E37" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Over 200 applicants</v>
       </c>
       <c r="F37" t="str">
-        <v>https://ph.linkedin.com/company/microsourcing?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/parallelz?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Multimedia Intern</v>
+        <v>Animator: Narrative Gameplay (All Levels)</v>
       </c>
       <c r="B38" t="str">
-        <v>Kooapps</v>
+        <v>Rockstar Games</v>
       </c>
       <c r="C38" t="str">
-        <v>1 year ago</v>
+        <v>2 weeks ago</v>
       </c>
       <c r="D38" t="str">
-        <v>Makati, National Capital Region, Philippines</v>
+        <v>Oakville, Ontario, Canada</v>
       </c>
       <c r="E38" t="str">
-        <v>Be among the first 25 applicants</v>
+        <v>Over 200 applicants</v>
       </c>
       <c r="F38" t="str">
-        <v>https://www.linkedin.com/company/kooapps?trk=public_jobs_topcard-org-name</v>
+        <v>https://www.linkedin.com/company/rockstar-games?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
+        <v>Game Developer (Gacha Games)</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Tier 9 Game Studios</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://www.linkedin.com/company/tier-9-game-studios?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Digital Product Manager</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Sago Mini</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://www.linkedin.com/company/sagomini?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Producer</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Ubisoft Toronto</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://www.linkedin.com/company/ubisoft-toronto?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Software Engineer - Simulation</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Oxa</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2 days ago</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://www.linkedin.com/company/oxauniversalautonomy?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Director of Influencer Management and Public Relations</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Behaviour Interactive</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://www.linkedin.com/company/behaviour-interactive?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Unity / Unreal Engine Instructor</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Toronto Film School</v>
+      </c>
+      <c r="C44" t="str">
+        <v>7 months ago</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://www.linkedin.com/school/toronto-film-school/?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Senior Player Support Manager | Gestionnaire Sénior·e du Support aux Joueurs·euses</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Behaviour Interactive</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1 day ago</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://www.linkedin.com/company/behaviour-interactive?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Online Software Engineer</v>
+      </c>
+      <c r="B46" t="str">
+        <v>EA SPORTS</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://www.linkedin.com/company/easports?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Learning Strategist</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Clarity Consultants</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://www.linkedin.com/company/clarity-consultants?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Retail Systems &amp; Operations Lead</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Canada Goose</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3 days ago</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://www.linkedin.com/company/canada-goose-inc?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Producer</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Ubisoft</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://www.linkedin.com/company/ubisoft?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Lead Game Designer - Game of Thrones Legends</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Zynga</v>
+      </c>
+      <c r="C50" t="str">
+        <v>4 days ago</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://www.linkedin.com/company/zynga?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Director of Communications | Directeur·trice des Communications</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Behaviour Interactive</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://www.linkedin.com/company/behaviour-interactive?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Community Manager</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Sinn Studio Inc.</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://www.linkedin.com/company/sinnstudio?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Lighting Artist - Sledgehammer Games Toronto</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Sledgehammer Games</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://www.linkedin.com/company/sledgehammer-games?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Client Engineer</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Electronic Arts (EA)</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://www.linkedin.com/company/electronic-arts?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Systems Designer - Sledgehammer Games Toronto</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Activision</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2 days ago</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://www.linkedin.com/company/activision?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Product Applications Engineer</v>
+      </c>
+      <c r="B56" t="str">
+        <v>GE Renewable Energy</v>
+      </c>
+      <c r="C56" t="str">
+        <v>5 days ago</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Markham, Ontario, Canada</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://www.linkedin.com/company/gerenewableenergy?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Analytics Manager</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Electronic Arts (EA)</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://www.linkedin.com/company/electronic-arts?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Lead, Game Producer</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Prodigy Education</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Greater Toronto Area, Canada</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://www.linkedin.com/company/prodigyedu?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Core Software Engineer</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Maxis Studios - EA</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2 weeks ago</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://www.linkedin.com/company/maxis-ea?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Technical Animator</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Ubisoft Toronto</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2 days ago</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://www.linkedin.com/company/ubisoft-toronto?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Product Manager (BSA)</v>
+      </c>
+      <c r="B61" t="str">
+        <v>BLAZESOFT</v>
+      </c>
+      <c r="C61" t="str">
+        <v>3 weeks ago</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Vaughan, Ontario, Canada</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://www.linkedin.com/company/blazesoft-ltd.?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Business Development Executive, Ontario</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Bell</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://www.linkedin.com/company/bell?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Sr. Financial Analyst, Manufacturing</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Canada Goose</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://www.linkedin.com/company/canada-goose-inc?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Internal Strategy - Master&amp;apos;s Level Position</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Vosyn</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Etobicoke, Ontario, Canada</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://www.linkedin.com/company/vosyn?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>3D Artist</v>
+      </c>
+      <c r="B65" t="str">
+        <v>SALT XC</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1 month ago</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Toronto, Ontario, Canada</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://www.linkedin.com/company/ilovesalt?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Internal Strategy - Master's Level Position</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Vosyn</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Etobicoke, Ontario, Canada</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Be among the first 25 applicants</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://www.linkedin.com/company/vosyn?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Junior Level Designer</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Ubisoft Philippines</v>
+      </c>
+      <c r="C67" t="str">
+        <v>3 hours ago</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://www.linkedin.com/company/ubisoft-philippines?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
         <v>Unity Level Integrator</v>
       </c>
-      <c r="B39" t="str">
-        <v>Skillsearch</v>
-      </c>
-      <c r="C39" t="str">
-        <v>6 months ago</v>
-      </c>
-      <c r="D39" t="str">
-        <v>Metro Manila</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="B68" t="str">
+        <v>Limit Break</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2 days ago</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Manila, National Capital Region, Philippines</v>
+      </c>
+      <c r="E68" t="str">
         <v>Be among the first 25 applicants</v>
       </c>
-      <c r="F39" t="str">
-        <v>https://uk.linkedin.com/company/skillsearch?trk=public_jobs_topcard-org-name</v>
+      <c r="F68" t="str">
+        <v>https://www.linkedin.com/company/limit-break?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Level Designer</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Ubisoft Philippines</v>
+      </c>
+      <c r="C69" t="str">
+        <v>3 days ago</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Over 200 applicants</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://www.linkedin.com/company/ubisoft-philippines?trk=public_jobs_topcard-org-name</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Cinematic Designer</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Ubisoft Philippines</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1 week ago</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Taguig, National Capital Region, Philippines</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://www.linkedin.com/company/ubisoft-philippines?trk=public_jobs_topcard-org-name</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F70"/>
   </ignoredErrors>
 </worksheet>
 </file>